--- a/biology/Médecine/Guido_Baccelli/Guido_Baccelli.xlsx
+++ b/biology/Médecine/Guido_Baccelli/Guido_Baccelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Guido Baccelli (25 novembre 1830, Rome - 11 janvier 1916, Rome) est un médecin et homme politique italien.
@@ -514,67 +526,329 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et éducation
-Guido Baccelli est né à Rome le 25 novembre 1830 d'Antonio, descendant d'une noble famille florentine et chirurgien de grande renommée, et d'Adelaide Leonori[1]. Il fait ses études au Collegio Ghislieri de la Via Giulia à Rome (démoli pour faire place au Liceo Virgilio)[2]. Au début de l'année 1848, il tente de s'enrôler dans un corps de volontaires pour l'indépendance de l'Italie, mais le recteur du collège l'en empêche ; le 30 avril 1849, ayant échappé à la surveillance des instructeurs, il passe quelques heures sur les barricades qui défendaient la République romaine contre l'assaut des troupes françaises, mais lorsqu'il rentre le soir, son père le voit " avec les mains fumées et l'odeur de la poussière ", lui interdit de continuer et le relègue dans la maison familiale de San Vito Romano[3]. Il s'inscrit à la faculté de médecine de l'université pontificale de La Sapienza et obtient entre 1852 et 1853 un double diplôme de médecine et de chirurgie[4]. Élève de Benedetto Viale Prelà, Baccelli s'est toujours souvenu de son professeur comme de celui grâce auquel, à partir de 1852,
-"L'enseignement pratique a été réformé et l'analyse clinique, le microscope, le stéthoscope et le pleximètre ainsi que l'investigation consciencieuse du cadavre ont constitué le vaste équipement du nouvel enseignement[5]".
-(Guido Baccelli)
-Médecin et professeur d'université
-Dès 1856, il est suppléant à la chaire de médecine politico-juridique. En 1862, il remplace Benedetto Viale-Prelà à la chaire de Clinica medica et à la direction de la clinique du même nom qui se trouvait, à l'époque, à l'Arcispedale di Santo Spirito en Saxe : il occupera ces deux postes pendant plus de cinquante ans, jusqu'à sa mort[6]. Sa rigueur intellectuelle et son efficacité pédagogique recevront de nombreux témoignages faisant autorité.
+          <t>Famille et éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Guido Baccelli est né à Rome le 25 novembre 1830 d'Antonio, descendant d'une noble famille florentine et chirurgien de grande renommée, et d'Adelaide Leonori. Il fait ses études au Collegio Ghislieri de la Via Giulia à Rome (démoli pour faire place au Liceo Virgilio). Au début de l'année 1848, il tente de s'enrôler dans un corps de volontaires pour l'indépendance de l'Italie, mais le recteur du collège l'en empêche ; le 30 avril 1849, ayant échappé à la surveillance des instructeurs, il passe quelques heures sur les barricades qui défendaient la République romaine contre l'assaut des troupes françaises, mais lorsqu'il rentre le soir, son père le voit " avec les mains fumées et l'odeur de la poussière ", lui interdit de continuer et le relègue dans la maison familiale de San Vito Romano. Il s'inscrit à la faculté de médecine de l'université pontificale de La Sapienza et obtient entre 1852 et 1853 un double diplôme de médecine et de chirurgie. Élève de Benedetto Viale Prelà, Baccelli s'est toujours souvenu de son professeur comme de celui grâce auquel, à partir de 1852,
+"L'enseignement pratique a été réformé et l'analyse clinique, le microscope, le stéthoscope et le pleximètre ainsi que l'investigation consciencieuse du cadavre ont constitué le vaste équipement du nouvel enseignement".
+(Guido Baccelli)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecin et professeur d'université</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1856, il est suppléant à la chaire de médecine politico-juridique. En 1862, il remplace Benedetto Viale-Prelà à la chaire de Clinica medica et à la direction de la clinique du même nom qui se trouvait, à l'époque, à l'Arcispedale di Santo Spirito en Saxe : il occupera ces deux postes pendant plus de cinquante ans, jusqu'à sa mort. Sa rigueur intellectuelle et son efficacité pédagogique recevront de nombreux témoignages faisant autorité.
 Le grand clinicien Augusto Murri, qui fut l'assistant de Baccelli à la Clinique médicale de Rome à partir de 1870, se souvient de lui en 1888:
-"Lorsque je suis entré dans sa clinique, j'avais vécu deux ans dans les écoles de France et d'Allemagne, mais dans aucune d'elles le libre examen, le respect de l'indépendance absolue de la pensée et de la parole n'étaient aussi religieux et sincères que dans la Clinique située à cent mètres du Vatican. Pensez avec votre cerveau ; ne vous inclinez jamais devant l'autorité, croyez les faits et la raison, mais rien d'autre ; ne me croyez pas, mais croyez votre propre jugement". Ce sont les phrases que notre Maître avait l'habitude de nous répéter chaque jour[6]".
+"Lorsque je suis entré dans sa clinique, j'avais vécu deux ans dans les écoles de France et d'Allemagne, mais dans aucune d'elles le libre examen, le respect de l'indépendance absolue de la pensée et de la parole n'étaient aussi religieux et sincères que dans la Clinique située à cent mètres du Vatican. Pensez avec votre cerveau ; ne vous inclinez jamais devant l'autorité, croyez les faits et la raison, mais rien d'autre ; ne me croyez pas, mais croyez votre propre jugement". Ce sont les phrases que notre Maître avait l'habitude de nous répéter chaque jour".
 (Augusto Murri)
 Le non moins célèbre malariologue Ettore Marchiafava se rappelait encore en 1928:
-"les leçons inoubliables sur la perniciosité [du paludisme] données par Guido Baccelli, dans une petite salle du dernier étage de l'ancien et glorieux hôpital Santo Spirito, auxquelles mes pensées reviennent souvent avec un sentiment de nostalgie et de gratitude[7]".
+"les leçons inoubliables sur la perniciosité [du paludisme] données par Guido Baccelli, dans une petite salle du dernier étage de l'ancien et glorieux hôpital Santo Spirito, auxquelles mes pensées reviennent souvent avec un sentiment de nostalgie et de gratitude".
 (Ettore Marchiafava)
-Dans la pratique médicale, Guido Baccelli est l'un des tout premiers en Italie à utiliser systématiquement le stéthoscope, au point d'être parfois appelé "le médecin qui examine les malades avec une trompette"[8] (le stéthoscope monaural de l'époque avait en effet la forme d'une petite trompette). Son patient le plus célèbre est sans doute le roi Victor Emmanuel II, que Baccelli a assisté lors de sa dernière maladie broncho-pulmonaire fatale. À cette occasion, Baccelli expérimente sur le souverain l'utilisation thérapeutique de l'oxygène, un traitement alors totalement pionnier, qui provoque une amélioration temporaire de la respiration permettant au roi d'accomplir certains actes nécessaires à la succession et de se réconcilier in extremis avec l'Église catholique en obtenant les derniers sacrements. C'est dans cette circonstance qu'une amitié profonde et durable a commencé entre Guido Baccelli et le nouveau roi Umberto I[9].
-Principales contributions scientifiques
-Séméiotique et cardiologie
-Baccelli a donné une grande impulsion à l'investigation séméiotique abdominale et thoracique. En particulier, ses études sur les pathologies cardiaques et des grands vaisseaux, qui aboutirent à la publication de l'ouvrage en trois volumes "Patologia del cuore e dell'aorta" (Rome, 1863-1866), lui permirent d'identifier de nombreux symptômes et tableaux morbides nouveaux[10]: " Il associa son nom au phénomène de la pétrification aphonique dans les épanchements pleuraux (1876), illustra le symptôme de la diplofonie dans les cas de cavernes communicantes, (. ...) l'angine abdominale cliniquement individualisée"[10] Certains auteurs font remonter à Guido Baccelli la pratique diagnostique bien connue qui consiste à faire dire au patient le mot "trente-trois" afin de provoquer des vibrations favorisant l'investigation de l'état des poumons. Cette pratique a été saluée par Hermann von Helmholtz lui-même[11].
-La lutte contre le paludisme
-Baccelli a été l'un des protagonistes de la lutte italienne contre le paludisme également parce que, comme il dirigeait la clinique de l'hôpital de Santo Spirito où étaient habituellement admis les "hommes fiévreux"[12] provenant de l'Ager romanus (Agro Romano) et des régions voisines, un grand nombre de patients atteints de paludisme passaient sous ses yeux, ce qui lui a permis de se familiariser avec "toutes les formes cliniques très différentes de la maladie"[13]. Grâce à cette grande expérience, Guido Baccelli est chargé par le gouvernement italien de rédiger un rapport sur le paludisme qui sera présenté, avec d'autres contributions, à l'Exposition universelle de Paris en 1878 : son essai "La malaria di Roma" (1878) est d'autant plus significatif qu'il présente les connaissances les plus récentes sur le paludisme à la veille des découvertes extraordinaires qui en changeront complètement la physionomie au cours des vingt années suivantes[14]. Plus tard, Baccelli accueillera dans les salles de Santo Spirito les deux futurs prix Nobel Alphonse Laveran (en 1882)[15] et Camillo Golgi (en 1893)[16], qui cherchaient et trouvaient des confirmations à leurs théories sur la genèse et l'évolution de la malaria, tant dans la Campagne romaine que dans cet hôpital, où l'écorce de quinquina avait été utilisée pour la première fois au XVIIe siècle contre les fièvres paludéennes. Ce même hôpital sera le témoin d'autres expériences décisives menées par Angelo Celli et Ettore Marchiafava et, à la fin du siècle, par Giovan Battista Grassi, Amico Bignami et Giuseppe Bastianelli[17], toutes figures plus ou moins directement liées à Baccelli, même si elles n'étaient pas toujours d'accord avec lui sur la nature de cette maladie et les moyens les plus appropriés pour la combattre. La plus grande limite de Baccelli - du point de vue de l'étiopathogénie du paludisme - a été de résister, pratiquement jusqu'à la fin de sa vie, à l'idée de l'"exclusivisme anophélien", c'est-à-dire à l'idée que seul le moustique anophélien (Anophelinae) était le vecteur de l'infection[18]. Ainsi, alors qu'Angelo Celli, " anoféliste " convaincu, promouvait des lois pour rendre la quinine accessible à tous[19], Guido Baccelli était convaincu que la propagation de la malaria était davantage liée à la persistance de vastes zones marécageuses et insalubres dans de grandes parties de l'Italie qu'à la présence de moustiques anofèles dans celles-ci, il s'est engagé, en tant qu'homme politique et ministre, à promouvoir de manière décisive l'approbation de lois pour la récupération, non seulement hydraulique mais aussi agraire et socio-éducative, de l'Agro Romano et ensuite progressivement d'autres zones italiennes, contribuant ainsi de manière significative à réduire l'incidence de cette grave maladie[20].
-Médicaments héroïques" et thérapie intraveineuse
-D'un point de vue thérapeutique, Guido Baccelli privilégie les "médicaments héroïques", c'est-à-dire ceux destinés à des cas particulièrement graves ou apparemment sans espoir. Baccelli fut notamment un pionnier dans l'utilisation thérapeutique des injections intraveineuses ("Ouvrir la voie des veines aux médicaments héroïques")[21] qu'il appliqua, par exemple, avec succès dans certains cas, qui semblaient jusqu'alors sans espoir, de malaria pernicieuse, une forme particulièrement grave de la maladie qui entraînait souvent la mort en quelques heures. Ses injections intraveineuses de chlorhydrate de quinine qui, à partir de 1889, lui permettent d'obtenir des guérisons retentissantes de paludisme pernicieux lui valent, lors du Congrès médical international de Berlin en 1890, un commentaire célèbre du grand pathologiste allemand Rudolph Virchow : "Ce que Joseph Lister a fait pour la surface du corps, Baccelli l'a fait pour la crase sanguine"[22]. Pourtant, dès 1907, Charles Louis Alphonse Laveran, tout en faisant l'éloge de la méthode de Baccelli, déclarait qu'il préférait désormais la méthode hypodermique, car elle était tout aussi rapide et certainement plus simple pour introduire "les sels de quinine dans la circulation générale"[23]. Entre-temps, cependant, la méthode d'injection intraveineuse de Baccelli avait sauvé de nombreuses vies, dont celle du jeune Enrico Novelli, qui allait devenir le célèbre écrivain et dessinateur "Yambo"[24].
-Carrière politique
-Après la prise de Rome en 1870, Guido Baccelli prête - avec 21 autres professeurs de La Sapienza (sur un total de 36) - le serment d'allégeance au roi et aux lois du nouvel État requis pour être confirmé dans les postes d'enseignement en octobre 1871[25]. Ensuite, bien que contrarié par certains qui le considéraient comme un clerc et l'accusaient de ne pas avoir donné suffisamment de preuves de sentiments libéraux et patriotiques au cours des années précédentes[26], Guido Baccelli a entamé une carrière politique fulgurante qui l'a conduit à être l'un des hommes d'État les plus influents d'Italie au tournant des XIXe et XXe siècles.
-En 1872, il est nommé président du Conseil supérieur de la santé, fonction qu'il conserve jusqu'en 1877, puis de 1887 à 1915, date du début de la Première Guerre mondiale, soit un total de plus de trente ans (un cas unique dans l'histoire de l'Italie)[27]. Partisan de la gauche historique (Sinistra storica), il est élu pour la première fois à la Chambre des députés en 1874, aux côtés de Giuseppe Garibaldi, dont il devient l'ami et le collaborateur dans certaines batailles parlementaires[28]. En 1875, il devient également membre du conseil municipal de Rome, où il siège jusqu'en 1913[29].
-De 1881 à 1900, il obtient sept fois la charge de Ministre de l'Instruction publique du royaume d'Italie (une de ses destitutions temporaires en 1896 fut la cause d'un mouvement estudiantin mené par Filippo De Nobili) durant les gouvernements Cairoli III, Depretis IV, Depretis V, Crispi III, Crispi IV, Pelloux I et Pelloux II[30]. De 1901 à 1903, durant le gouvernement Zanardelli, il est Ministre de l'Agriculture, de l'Industrie et du Commerce[31].
+Dans la pratique médicale, Guido Baccelli est l'un des tout premiers en Italie à utiliser systématiquement le stéthoscope, au point d'être parfois appelé "le médecin qui examine les malades avec une trompette" (le stéthoscope monaural de l'époque avait en effet la forme d'une petite trompette). Son patient le plus célèbre est sans doute le roi Victor Emmanuel II, que Baccelli a assisté lors de sa dernière maladie broncho-pulmonaire fatale. À cette occasion, Baccelli expérimente sur le souverain l'utilisation thérapeutique de l'oxygène, un traitement alors totalement pionnier, qui provoque une amélioration temporaire de la respiration permettant au roi d'accomplir certains actes nécessaires à la succession et de se réconcilier in extremis avec l'Église catholique en obtenant les derniers sacrements. C'est dans cette circonstance qu'une amitié profonde et durable a commencé entre Guido Baccelli et le nouveau roi Umberto I.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principales contributions scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Séméiotique et cardiologie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baccelli a donné une grande impulsion à l'investigation séméiotique abdominale et thoracique. En particulier, ses études sur les pathologies cardiaques et des grands vaisseaux, qui aboutirent à la publication de l'ouvrage en trois volumes "Patologia del cuore e dell'aorta" (Rome, 1863-1866), lui permirent d'identifier de nombreux symptômes et tableaux morbides nouveaux: " Il associa son nom au phénomène de la pétrification aphonique dans les épanchements pleuraux (1876), illustra le symptôme de la diplofonie dans les cas de cavernes communicantes, (. ...) l'angine abdominale cliniquement individualisée" Certains auteurs font remonter à Guido Baccelli la pratique diagnostique bien connue qui consiste à faire dire au patient le mot "trente-trois" afin de provoquer des vibrations favorisant l'investigation de l'état des poumons. Cette pratique a été saluée par Hermann von Helmholtz lui-même.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales contributions scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>La lutte contre le paludisme</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baccelli a été l'un des protagonistes de la lutte italienne contre le paludisme également parce que, comme il dirigeait la clinique de l'hôpital de Santo Spirito où étaient habituellement admis les "hommes fiévreux" provenant de l'Ager romanus (Agro Romano) et des régions voisines, un grand nombre de patients atteints de paludisme passaient sous ses yeux, ce qui lui a permis de se familiariser avec "toutes les formes cliniques très différentes de la maladie". Grâce à cette grande expérience, Guido Baccelli est chargé par le gouvernement italien de rédiger un rapport sur le paludisme qui sera présenté, avec d'autres contributions, à l'Exposition universelle de Paris en 1878 : son essai "La malaria di Roma" (1878) est d'autant plus significatif qu'il présente les connaissances les plus récentes sur le paludisme à la veille des découvertes extraordinaires qui en changeront complètement la physionomie au cours des vingt années suivantes. Plus tard, Baccelli accueillera dans les salles de Santo Spirito les deux futurs prix Nobel Alphonse Laveran (en 1882) et Camillo Golgi (en 1893), qui cherchaient et trouvaient des confirmations à leurs théories sur la genèse et l'évolution de la malaria, tant dans la Campagne romaine que dans cet hôpital, où l'écorce de quinquina avait été utilisée pour la première fois au XVIIe siècle contre les fièvres paludéennes. Ce même hôpital sera le témoin d'autres expériences décisives menées par Angelo Celli et Ettore Marchiafava et, à la fin du siècle, par Giovan Battista Grassi, Amico Bignami et Giuseppe Bastianelli, toutes figures plus ou moins directement liées à Baccelli, même si elles n'étaient pas toujours d'accord avec lui sur la nature de cette maladie et les moyens les plus appropriés pour la combattre. La plus grande limite de Baccelli - du point de vue de l'étiopathogénie du paludisme - a été de résister, pratiquement jusqu'à la fin de sa vie, à l'idée de l'"exclusivisme anophélien", c'est-à-dire à l'idée que seul le moustique anophélien (Anophelinae) était le vecteur de l'infection. Ainsi, alors qu'Angelo Celli, " anoféliste " convaincu, promouvait des lois pour rendre la quinine accessible à tous, Guido Baccelli était convaincu que la propagation de la malaria était davantage liée à la persistance de vastes zones marécageuses et insalubres dans de grandes parties de l'Italie qu'à la présence de moustiques anofèles dans celles-ci, il s'est engagé, en tant qu'homme politique et ministre, à promouvoir de manière décisive l'approbation de lois pour la récupération, non seulement hydraulique mais aussi agraire et socio-éducative, de l'Agro Romano et ensuite progressivement d'autres zones italiennes, contribuant ainsi de manière significative à réduire l'incidence de cette grave maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principales contributions scientifiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Médicaments héroïques" et thérapie intraveineuse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'un point de vue thérapeutique, Guido Baccelli privilégie les "médicaments héroïques", c'est-à-dire ceux destinés à des cas particulièrement graves ou apparemment sans espoir. Baccelli fut notamment un pionnier dans l'utilisation thérapeutique des injections intraveineuses ("Ouvrir la voie des veines aux médicaments héroïques") qu'il appliqua, par exemple, avec succès dans certains cas, qui semblaient jusqu'alors sans espoir, de malaria pernicieuse, une forme particulièrement grave de la maladie qui entraînait souvent la mort en quelques heures. Ses injections intraveineuses de chlorhydrate de quinine qui, à partir de 1889, lui permettent d'obtenir des guérisons retentissantes de paludisme pernicieux lui valent, lors du Congrès médical international de Berlin en 1890, un commentaire célèbre du grand pathologiste allemand Rudolph Virchow : "Ce que Joseph Lister a fait pour la surface du corps, Baccelli l'a fait pour la crase sanguine". Pourtant, dès 1907, Charles Louis Alphonse Laveran, tout en faisant l'éloge de la méthode de Baccelli, déclarait qu'il préférait désormais la méthode hypodermique, car elle était tout aussi rapide et certainement plus simple pour introduire "les sels de quinine dans la circulation générale". Entre-temps, cependant, la méthode d'injection intraveineuse de Baccelli avait sauvé de nombreuses vies, dont celle du jeune Enrico Novelli, qui allait devenir le célèbre écrivain et dessinateur "Yambo".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la prise de Rome en 1870, Guido Baccelli prête - avec 21 autres professeurs de La Sapienza (sur un total de 36) - le serment d'allégeance au roi et aux lois du nouvel État requis pour être confirmé dans les postes d'enseignement en octobre 1871. Ensuite, bien que contrarié par certains qui le considéraient comme un clerc et l'accusaient de ne pas avoir donné suffisamment de preuves de sentiments libéraux et patriotiques au cours des années précédentes, Guido Baccelli a entamé une carrière politique fulgurante qui l'a conduit à être l'un des hommes d'État les plus influents d'Italie au tournant des XIXe et XXe siècles.
+En 1872, il est nommé président du Conseil supérieur de la santé, fonction qu'il conserve jusqu'en 1877, puis de 1887 à 1915, date du début de la Première Guerre mondiale, soit un total de plus de trente ans (un cas unique dans l'histoire de l'Italie). Partisan de la gauche historique (Sinistra storica), il est élu pour la première fois à la Chambre des députés en 1874, aux côtés de Giuseppe Garibaldi, dont il devient l'ami et le collaborateur dans certaines batailles parlementaires. En 1875, il devient également membre du conseil municipal de Rome, où il siège jusqu'en 1913.
+De 1881 à 1900, il obtient sept fois la charge de Ministre de l'Instruction publique du royaume d'Italie (une de ses destitutions temporaires en 1896 fut la cause d'un mouvement estudiantin mené par Filippo De Nobili) durant les gouvernements Cairoli III, Depretis IV, Depretis V, Crispi III, Crispi IV, Pelloux I et Pelloux II. De 1901 à 1903, durant le gouvernement Zanardelli, il est Ministre de l'Agriculture, de l'Industrie et du Commerce.
 En 1895, il prépare de nouveaux programmes en ajoutant des suggestions très détaillées pour chaque sujet d'étude, instituant également des notions de travail manuel, agricole et "donnish", élargissant également l'espace de l'éducation religieuse au détriment de l'éducation scientifique. L'enseignement de l'histoire devait également viser à l'éducation morale et patriotique des élèves. Il a également porté la durée de la première année de l'école primaire à trois ans, tandis que la deuxième année est restée de deux ans.
 En tant que ministre de l'éducation, il a favorisé la construction de l'hôpital Umberto I (Policlinico Umberto I) et de la Galerie nationale d'art moderne et contemporain à Rome, et a donné une impulsion aux fouilles archéologiques de Pompéi et des thermes de Caracalla.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Guido_Baccelli</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Les grands projets pour la capitale Rome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guido Baccelli, humaniste et amoureux de l'antiquité classique, est l'un des grands théoriciens de la nouvelle capitale de l'État unifié comme la Troisième Rome, à la recherche d'une nouvelle grandeur après celles atteintes par la Rome antique et la Rome des papes[32]. Il mettra donc toute son influence et son poids politique en jeu (ce qui se ressent également par sa présence fréquente dans la satire politique de l'époque) pour réaliser des projets ambitieux qui feront précisément revivre la grandeur de la ville de Rome.
-Le Panthéon
-Dès qu'il devient pour la première fois ministre de l'Instruction publique (1881), Baccelli, profitant du fait que la Direction générale des Antiquités et des Beaux-Arts dépendait alors de ce ministère, promeut une grande campagne de restauration du Panthéon, visant à rendre à ce monument sa splendeur primitive[33]. Baccelli fit isoler le monument des constructions qui l'avaient quelque peu étouffé au fil du temps, fit démolir les deux clochers controversés (les " oreilles d'âne " comme les appelait la population romaine) construits au XVIIe siècle par Gian Lorenzo Bernini et, malgré l'avis contraire du grand historien Theodor Mommsen, fit placer sur la façade du temple restauré des lettres en bronze, identiques à celles qui y figuraient dans l'Antiquité pour rappeler l'œuvre d'Agrippa : M. AGRIPPA.L.F.COS.TERTIVM.FECIT (Marcus Agrippa, fils de Lucius, consul pour la troisième fois, construit)[34].
-La promenade archéologique
-Mais la restauration du Panthéon n'était que le prélude au plus grand projet de Baccelli dans le domaine de l'histoire et de l'archéologie : celui de la valorisation urbaine de la zone monumentale antique de Rome, encore connue aujourd'hui sous le nom de "promenade archéologique". Déjà pendant ses deuxième et troisième ministères, entre 1882 et 1884, Baccelli avait promu une importante campagne de fouilles et de réaménagement du Forum romain. Le principal résultat des fouilles archéologiques de ces années-là est la découverte de la Maison des Vestales, explorée en 1882 1883 sous la direction de Rodolfo Lanciani[35]. Mais c'est au milieu des années 1980 que prend forme le projet grandiose de Baccelli pour une protection urbaine complète et une valorisation artistico-culturelle de la vaste zone monumentale, qui comprend des lieux fascinants et symboliques comme le Forum romain, le Palatin, le Colisée et les Thermes de Caracalla. Le développement immobilier souvent sauvage et incontrôlé qui a caractérisé les premières années de la nouvelle capitale italienne risquait d'aggraver encore la dégradation et l'effacement progressif de l'une des zones les plus chargées d'histoire au monde. C'est dans cette optique que Guido Baccelli a présenté au Parlement, en 1887, un "Plan d'aménagement de la zone monumentale réservée de Rome", qui est devenu une loi quelques mois plus tard. La loi délimite une vaste zone (le Forum romain avec une petite partie des Forums impériaux, le Colisée, les thermes de Trajan, des parties du Cælius, du Palatin, du Forum Boarium, du Circus Maximus, de l'Aventin, des thermes de Caracalla, de la Voie Appienne jusqu'au mur d'Aurélien) pour en faire un parc archéologique ; les travaux devaient être achevés en dix ans grâce à des expropriations convenues entre la municipalité de Rome et le ministère de l'Éducation[36]. Le projet grandiose a été révisé et réduit à plusieurs reprises au cours des décennies suivantes, mais finalement, la bataille de Guido Baccelli a été essentiellement gagnée et aujourd'hui, la réalisation de ce projet est au centre de chaque visite touristique à Rome.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guido Baccelli, humaniste et amoureux de l'antiquité classique, est l'un des grands théoriciens de la nouvelle capitale de l'État unifié comme la Troisième Rome, à la recherche d'une nouvelle grandeur après celles atteintes par la Rome antique et la Rome des papes. Il mettra donc toute son influence et son poids politique en jeu (ce qui se ressent également par sa présence fréquente dans la satire politique de l'époque) pour réaliser des projets ambitieux qui feront précisément revivre la grandeur de la ville de Rome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les grands projets pour la capitale Rome</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le Panthéon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès qu'il devient pour la première fois ministre de l'Instruction publique (1881), Baccelli, profitant du fait que la Direction générale des Antiquités et des Beaux-Arts dépendait alors de ce ministère, promeut une grande campagne de restauration du Panthéon, visant à rendre à ce monument sa splendeur primitive. Baccelli fit isoler le monument des constructions qui l'avaient quelque peu étouffé au fil du temps, fit démolir les deux clochers controversés (les " oreilles d'âne " comme les appelait la population romaine) construits au XVIIe siècle par Gian Lorenzo Bernini et, malgré l'avis contraire du grand historien Theodor Mommsen, fit placer sur la façade du temple restauré des lettres en bronze, identiques à celles qui y figuraient dans l'Antiquité pour rappeler l'œuvre d'Agrippa : M. AGRIPPA.L.F.COS.TERTIVM.FECIT (Marcus Agrippa, fils de Lucius, consul pour la troisième fois, construit).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guido_Baccelli</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les grands projets pour la capitale Rome</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>La promenade archéologique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mais la restauration du Panthéon n'était que le prélude au plus grand projet de Baccelli dans le domaine de l'histoire et de l'archéologie : celui de la valorisation urbaine de la zone monumentale antique de Rome, encore connue aujourd'hui sous le nom de "promenade archéologique". Déjà pendant ses deuxième et troisième ministères, entre 1882 et 1884, Baccelli avait promu une importante campagne de fouilles et de réaménagement du Forum romain. Le principal résultat des fouilles archéologiques de ces années-là est la découverte de la Maison des Vestales, explorée en 1882 1883 sous la direction de Rodolfo Lanciani. Mais c'est au milieu des années 1980 que prend forme le projet grandiose de Baccelli pour une protection urbaine complète et une valorisation artistico-culturelle de la vaste zone monumentale, qui comprend des lieux fascinants et symboliques comme le Forum romain, le Palatin, le Colisée et les Thermes de Caracalla. Le développement immobilier souvent sauvage et incontrôlé qui a caractérisé les premières années de la nouvelle capitale italienne risquait d'aggraver encore la dégradation et l'effacement progressif de l'une des zones les plus chargées d'histoire au monde. C'est dans cette optique que Guido Baccelli a présenté au Parlement, en 1887, un "Plan d'aménagement de la zone monumentale réservée de Rome", qui est devenu une loi quelques mois plus tard. La loi délimite une vaste zone (le Forum romain avec une petite partie des Forums impériaux, le Colisée, les thermes de Trajan, des parties du Cælius, du Palatin, du Forum Boarium, du Circus Maximus, de l'Aventin, des thermes de Caracalla, de la Voie Appienne jusqu'au mur d'Aurélien) pour en faire un parc archéologique ; les travaux devaient être achevés en dix ans grâce à des expropriations convenues entre la municipalité de Rome et le ministère de l'Éducation. Le projet grandiose a été révisé et réduit à plusieurs reprises au cours des décennies suivantes, mais finalement, la bataille de Guido Baccelli a été essentiellement gagnée et aujourd'hui, la réalisation de ce projet est au centre de chaque visite touristique à Rome.
 </t>
         </is>
       </c>
